--- a/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Restoration.xlsx
+++ b/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Restoration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98472D3-518E-4307-8293-CB9A9FD1FA67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67070C93-4C5E-4DEE-956F-C11107245C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="372" windowWidth="19968" windowHeight="10356" xr2:uid="{51AC0D34-84D4-4E6B-9A56-EFDE144529A9}"/>
+    <workbookView xWindow="1416" yWindow="1992" windowWidth="21312" windowHeight="10668" xr2:uid="{51AC0D34-84D4-4E6B-9A56-EFDE144529A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="217">
   <si>
     <t>Assessment Unit #</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>Reach_Rank</t>
+  </si>
+  <si>
+    <t>Okanogan-Haynes Creek North</t>
+  </si>
+  <si>
+    <t>Okanogan 16-47</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720E866E-BF7E-4330-A1CA-D1EB59856671}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5793,12 +5799,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183">
+        <v>305</v>
+      </c>
+      <c r="D183" t="s">
+        <v>216</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>22</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H182" xr:uid="{0D33A8DB-B29F-4D01-8EA5-00B405D394AE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H182">
-      <sortCondition ref="D1:D182"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H183" xr:uid="{0D33A8DB-B29F-4D01-8EA5-00B405D394AE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Restoration.xlsx
+++ b/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Restoration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67070C93-4C5E-4DEE-956F-C11107245C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D7616-4F84-4448-A866-66BEE68F1551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1992" windowWidth="21312" windowHeight="10668" xr2:uid="{51AC0D34-84D4-4E6B-9A56-EFDE144529A9}"/>
+    <workbookView xWindow="810" yWindow="2115" windowWidth="27660" windowHeight="10170" xr2:uid="{51AC0D34-84D4-4E6B-9A56-EFDE144529A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="230">
   <si>
     <t>Assessment Unit #</t>
   </si>
@@ -688,6 +688,45 @@
   </si>
   <si>
     <t>Okanogan 16-47</t>
+  </si>
+  <si>
+    <t>Assessment_Unit_NO_DS_US</t>
+  </si>
+  <si>
+    <t>Aeneas Creek</t>
+  </si>
+  <si>
+    <t>Bonaparte Creek-Lower</t>
+  </si>
+  <si>
+    <t>Loup Loup Creek-Lower</t>
+  </si>
+  <si>
+    <t>Ninemile Creek</t>
+  </si>
+  <si>
+    <t>Omak Creek-Lower</t>
+  </si>
+  <si>
+    <t>Omak Creek-Middle</t>
+  </si>
+  <si>
+    <t>Omak Creek-Upper</t>
+  </si>
+  <si>
+    <t>Siwash Creek-Lower</t>
+  </si>
+  <si>
+    <t>Tonasket Creek</t>
+  </si>
+  <si>
+    <t>Tunk Creek-Lower</t>
+  </si>
+  <si>
+    <t>Wanacut Creek</t>
+  </si>
+  <si>
+    <t>Wildhorse Spring Creek</t>
   </si>
 </sst>
 </file>
@@ -1054,20 +1093,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720E866E-BF7E-4330-A1CA-D1EB59856671}">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="8" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,8 +1131,11 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1118,8 +1160,11 @@
       <c r="H2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -1144,8 +1189,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1170,8 +1218,11 @@
       <c r="H4">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1196,8 +1247,11 @@
       <c r="H5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1222,8 +1276,11 @@
       <c r="H6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1248,8 +1305,11 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1274,8 +1334,11 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1300,8 +1363,11 @@
       <c r="H9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1326,8 +1392,11 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -1352,8 +1421,11 @@
       <c r="H11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1378,8 +1450,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -1404,8 +1479,11 @@
       <c r="H13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1430,8 +1508,11 @@
       <c r="H14">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1456,8 +1537,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -1482,8 +1566,11 @@
       <c r="H16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1508,8 +1595,11 @@
       <c r="H17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1534,8 +1624,11 @@
       <c r="H18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1560,8 +1653,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1586,8 +1682,11 @@
       <c r="H20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1612,8 +1711,11 @@
       <c r="H21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1638,8 +1740,11 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1664,8 +1769,11 @@
       <c r="H23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -1690,8 +1798,11 @@
       <c r="H24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1716,8 +1827,11 @@
       <c r="H25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1742,8 +1856,11 @@
       <c r="H26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1768,8 +1885,11 @@
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1794,8 +1914,11 @@
       <c r="H28">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
@@ -1820,8 +1943,11 @@
       <c r="H29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1846,8 +1972,11 @@
       <c r="H30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -1872,8 +2001,11 @@
       <c r="H31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1898,8 +2030,11 @@
       <c r="H32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -1924,8 +2059,11 @@
       <c r="H33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1950,8 +2088,11 @@
       <c r="H34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13</v>
       </c>
@@ -1976,8 +2117,11 @@
       <c r="H35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>
@@ -2002,8 +2146,11 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
@@ -2028,8 +2175,11 @@
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -2054,8 +2204,11 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -2080,8 +2233,11 @@
       <c r="H39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -2106,8 +2262,11 @@
       <c r="H40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -2132,8 +2291,11 @@
       <c r="H41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -2158,8 +2320,11 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -2184,8 +2349,11 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -2210,8 +2378,11 @@
       <c r="H44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2236,8 +2407,11 @@
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2262,8 +2436,11 @@
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
@@ -2288,8 +2465,11 @@
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13</v>
       </c>
@@ -2314,8 +2494,11 @@
       <c r="H48">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2340,8 +2523,11 @@
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2366,8 +2552,11 @@
       <c r="H50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2392,8 +2581,11 @@
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -2418,8 +2610,11 @@
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2444,8 +2639,11 @@
       <c r="H53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2470,8 +2668,11 @@
       <c r="H54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2496,8 +2697,11 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2522,8 +2726,11 @@
       <c r="H56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -2548,8 +2755,11 @@
       <c r="H57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2574,8 +2784,11 @@
       <c r="H58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>26</v>
       </c>
@@ -2600,8 +2813,11 @@
       <c r="H59">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>26</v>
       </c>
@@ -2626,8 +2842,11 @@
       <c r="H60">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>26</v>
       </c>
@@ -2652,8 +2871,11 @@
       <c r="H61">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -2678,8 +2900,11 @@
       <c r="H62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2704,8 +2929,11 @@
       <c r="H63">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2730,8 +2958,11 @@
       <c r="H64">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2756,8 +2987,11 @@
       <c r="H65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2782,8 +3016,11 @@
       <c r="H66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2808,8 +3045,11 @@
       <c r="H67">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2834,8 +3074,11 @@
       <c r="H68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2860,8 +3103,11 @@
       <c r="H69">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2886,8 +3132,11 @@
       <c r="H70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2912,8 +3161,11 @@
       <c r="H71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2938,8 +3190,11 @@
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2964,8 +3219,11 @@
       <c r="H73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2990,8 +3248,11 @@
       <c r="H74">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -3016,8 +3277,11 @@
       <c r="H75">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -3042,8 +3306,11 @@
       <c r="H76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5</v>
       </c>
@@ -3068,8 +3335,11 @@
       <c r="H77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -3094,8 +3364,11 @@
       <c r="H78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -3120,8 +3393,11 @@
       <c r="H79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12</v>
       </c>
@@ -3146,8 +3422,11 @@
       <c r="H80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3172,8 +3451,11 @@
       <c r="H81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14</v>
       </c>
@@ -3198,8 +3480,11 @@
       <c r="H82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3224,8 +3509,11 @@
       <c r="H83">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3250,8 +3538,11 @@
       <c r="H84">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3276,8 +3567,11 @@
       <c r="H85">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3302,8 +3596,11 @@
       <c r="H86">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3328,8 +3625,11 @@
       <c r="H87">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3354,8 +3654,11 @@
       <c r="H88">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3380,8 +3683,11 @@
       <c r="H89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>19</v>
       </c>
@@ -3406,8 +3712,11 @@
       <c r="H90">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19</v>
       </c>
@@ -3432,8 +3741,11 @@
       <c r="H91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -3458,8 +3770,11 @@
       <c r="H92">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -3484,8 +3799,11 @@
       <c r="H93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
@@ -3510,8 +3828,11 @@
       <c r="H94">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -3536,8 +3857,11 @@
       <c r="H95">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3562,8 +3886,11 @@
       <c r="H96">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -3588,8 +3915,11 @@
       <c r="H97">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19</v>
       </c>
@@ -3614,8 +3944,11 @@
       <c r="H98">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>19</v>
       </c>
@@ -3640,8 +3973,11 @@
       <c r="H99">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>24</v>
       </c>
@@ -3666,8 +4002,11 @@
       <c r="H100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>24</v>
       </c>
@@ -3692,8 +4031,11 @@
       <c r="H101">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
@@ -3718,34 +4060,40 @@
       <c r="H102">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="C103">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
       </c>
       <c r="F103">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3753,10 +4101,10 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -3765,13 +4113,16 @@
         <v>15</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H104">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3779,10 +4130,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -3791,13 +4142,16 @@
         <v>15</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3805,10 +4159,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -3817,117 +4171,132 @@
         <v>15</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H106">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>109</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>15</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="I107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>3</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>19</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>114</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>20</v>
       </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107">
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108">
         <v>11</v>
       </c>
-      <c r="G107">
+      <c r="G108">
         <v>6</v>
       </c>
-      <c r="H107">
+      <c r="H108">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>101</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>10</v>
       </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108">
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109">
         <v>15</v>
       </c>
-      <c r="G108">
+      <c r="G109">
         <v>9</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>24</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>198</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>297</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>201</v>
       </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109">
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
         <v>9</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <v>4</v>
       </c>
-      <c r="H109">
+      <c r="H110">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110">
-        <v>150</v>
-      </c>
-      <c r="D110" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110">
-        <v>4</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -3935,10 +4304,10 @@
         <v>59</v>
       </c>
       <c r="C111">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3947,39 +4316,45 @@
         <v>4</v>
       </c>
       <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112">
+        <v>151</v>
+      </c>
+      <c r="D112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
         <v>3</v>
       </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112">
-        <v>162</v>
-      </c>
-      <c r="D112" t="s">
-        <v>73</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112">
-        <v>5</v>
-      </c>
-      <c r="G112">
-        <v>4</v>
-      </c>
       <c r="H112">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -3987,10 +4362,10 @@
         <v>66</v>
       </c>
       <c r="C113">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -3999,13 +4374,16 @@
         <v>5</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H113">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8</v>
       </c>
@@ -4013,10 +4391,10 @@
         <v>66</v>
       </c>
       <c r="C114">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -4025,39 +4403,45 @@
         <v>5</v>
       </c>
       <c r="G114">
+        <v>7</v>
+      </c>
+      <c r="H114">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115">
+        <v>163</v>
+      </c>
+      <c r="D115" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
         <v>9</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>9</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115">
-        <v>168</v>
-      </c>
-      <c r="D115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115">
-        <v>21</v>
-      </c>
-      <c r="G115">
-        <v>2</v>
-      </c>
       <c r="H115">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9</v>
       </c>
@@ -4065,10 +4449,10 @@
         <v>6</v>
       </c>
       <c r="C116">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -4077,39 +4461,45 @@
         <v>21</v>
       </c>
       <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>171</v>
+      </c>
+      <c r="D117" t="s">
         <v>7</v>
       </c>
-      <c r="H116">
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>21</v>
+      </c>
+      <c r="G117">
+        <v>7</v>
+      </c>
+      <c r="H117">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>10</v>
-      </c>
-      <c r="B117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117">
-        <v>172</v>
-      </c>
-      <c r="D117" t="s">
-        <v>83</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117">
-        <v>23</v>
-      </c>
-      <c r="G117">
-        <v>6</v>
-      </c>
-      <c r="H117">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10</v>
       </c>
@@ -4117,10 +4507,10 @@
         <v>82</v>
       </c>
       <c r="C118">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -4129,13 +4519,16 @@
         <v>23</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H118">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10</v>
       </c>
@@ -4143,10 +4536,10 @@
         <v>82</v>
       </c>
       <c r="C119">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D119" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -4155,13 +4548,16 @@
         <v>23</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10</v>
       </c>
@@ -4169,10 +4565,10 @@
         <v>82</v>
       </c>
       <c r="C120">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -4181,13 +4577,16 @@
         <v>23</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10</v>
       </c>
@@ -4195,10 +4594,10 @@
         <v>82</v>
       </c>
       <c r="C121">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D121" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -4207,39 +4606,45 @@
         <v>23</v>
       </c>
       <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122">
+        <v>178</v>
+      </c>
+      <c r="D122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>23</v>
+      </c>
+      <c r="G122">
         <v>5</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122">
-        <v>153</v>
-      </c>
-      <c r="D122" t="s">
-        <v>63</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-      <c r="G122">
-        <v>2</v>
-      </c>
-      <c r="H122">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -4247,10 +4652,10 @@
         <v>59</v>
       </c>
       <c r="C123">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -4259,13 +4664,16 @@
         <v>4</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
@@ -4273,10 +4681,10 @@
         <v>59</v>
       </c>
       <c r="C124">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -4285,13 +4693,16 @@
         <v>4</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -4299,10 +4710,10 @@
         <v>59</v>
       </c>
       <c r="C125">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -4311,39 +4722,45 @@
         <v>4</v>
       </c>
       <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126">
+        <v>155</v>
+      </c>
+      <c r="D126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
         <v>6</v>
       </c>
-      <c r="H125">
+      <c r="H126">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>8</v>
-      </c>
-      <c r="B126" t="s">
-        <v>66</v>
-      </c>
-      <c r="C126">
-        <v>157</v>
-      </c>
-      <c r="D126" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126">
-        <v>5</v>
-      </c>
-      <c r="G126">
-        <v>8</v>
-      </c>
-      <c r="H126">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8</v>
       </c>
@@ -4351,10 +4768,10 @@
         <v>66</v>
       </c>
       <c r="C127">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -4363,13 +4780,16 @@
         <v>5</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I127" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -4377,10 +4797,10 @@
         <v>66</v>
       </c>
       <c r="C128">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -4389,13 +4809,16 @@
         <v>5</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8</v>
       </c>
@@ -4403,10 +4826,10 @@
         <v>66</v>
       </c>
       <c r="C129">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -4415,13 +4838,16 @@
         <v>5</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -4429,10 +4855,10 @@
         <v>66</v>
       </c>
       <c r="C130">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -4441,13 +4867,16 @@
         <v>5</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H130">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I130" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -4455,10 +4884,10 @@
         <v>66</v>
       </c>
       <c r="C131">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -4467,39 +4896,45 @@
         <v>5</v>
       </c>
       <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132">
+        <v>161</v>
+      </c>
+      <c r="D132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
         <v>3</v>
       </c>
-      <c r="H131">
+      <c r="H132">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>6</v>
-      </c>
-      <c r="B132" t="s">
-        <v>44</v>
-      </c>
-      <c r="C132">
-        <v>131</v>
-      </c>
-      <c r="D132" t="s">
-        <v>45</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -4507,10 +4942,10 @@
         <v>44</v>
       </c>
       <c r="C133">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -4519,13 +4954,16 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -4533,10 +4971,10 @@
         <v>44</v>
       </c>
       <c r="C134">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -4545,13 +4983,16 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H134">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -4559,10 +5000,10 @@
         <v>44</v>
       </c>
       <c r="C135">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -4571,13 +5012,16 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H135">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -4585,10 +5029,10 @@
         <v>44</v>
       </c>
       <c r="C136">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -4597,13 +5041,16 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H136">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -4611,10 +5058,10 @@
         <v>44</v>
       </c>
       <c r="C137">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -4623,13 +5070,16 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -4637,10 +5087,10 @@
         <v>44</v>
       </c>
       <c r="C138">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -4649,13 +5099,16 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H138">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -4663,10 +5116,10 @@
         <v>44</v>
       </c>
       <c r="C139">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -4675,13 +5128,16 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I139" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -4689,10 +5145,10 @@
         <v>44</v>
       </c>
       <c r="C140">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -4701,13 +5157,16 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I140" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -4715,10 +5174,10 @@
         <v>44</v>
       </c>
       <c r="C141">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -4727,13 +5186,16 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -4741,10 +5203,10 @@
         <v>44</v>
       </c>
       <c r="C142">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -4753,13 +5215,16 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -4767,10 +5232,10 @@
         <v>44</v>
       </c>
       <c r="C143">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -4779,13 +5244,16 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H143">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -4793,10 +5261,10 @@
         <v>44</v>
       </c>
       <c r="C144">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -4805,13 +5273,16 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H144">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -4819,51 +5290,57 @@
         <v>44</v>
       </c>
       <c r="C145">
+        <v>139</v>
+      </c>
+      <c r="D145" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>8</v>
+      </c>
+      <c r="H145">
+        <v>11</v>
+      </c>
+      <c r="I145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146">
         <v>140</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>54</v>
       </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
         <v>5</v>
       </c>
-      <c r="H145">
+      <c r="H146">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>23</v>
-      </c>
-      <c r="B146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C146">
-        <v>289</v>
-      </c>
-      <c r="D146" t="s">
-        <v>192</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146">
-        <v>8</v>
-      </c>
-      <c r="G146">
-        <v>2</v>
-      </c>
-      <c r="H146">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>23</v>
       </c>
@@ -4871,10 +5348,10 @@
         <v>191</v>
       </c>
       <c r="C147">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -4883,13 +5360,16 @@
         <v>8</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>23</v>
       </c>
@@ -4897,10 +5377,10 @@
         <v>191</v>
       </c>
       <c r="C148">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -4909,13 +5389,16 @@
         <v>8</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>23</v>
       </c>
@@ -4923,10 +5406,10 @@
         <v>191</v>
       </c>
       <c r="C149">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -4935,13 +5418,16 @@
         <v>8</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H149">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
@@ -4949,10 +5435,10 @@
         <v>191</v>
       </c>
       <c r="C150">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -4961,13 +5447,16 @@
         <v>8</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H150">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>23</v>
       </c>
@@ -4975,77 +5464,86 @@
         <v>191</v>
       </c>
       <c r="C151">
+        <v>293</v>
+      </c>
+      <c r="D151" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>8</v>
+      </c>
+      <c r="G151">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>6</v>
+      </c>
+      <c r="I151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152">
         <v>294</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>197</v>
       </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151">
-        <v>8</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152">
+        <v>8</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
         <v>34</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="I152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>18</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>149</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>246</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>150</v>
       </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152">
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153">
         <v>25</v>
       </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>9</v>
-      </c>
-      <c r="B153" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153">
-        <v>166</v>
-      </c>
-      <c r="D153" t="s">
-        <v>77</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153">
-        <v>21</v>
-      </c>
-      <c r="G153">
-        <v>5</v>
-      </c>
-      <c r="H153">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -5053,10 +5551,10 @@
         <v>6</v>
       </c>
       <c r="C154">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -5065,13 +5563,16 @@
         <v>21</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H154">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -5079,10 +5580,10 @@
         <v>6</v>
       </c>
       <c r="C155">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -5091,13 +5592,16 @@
         <v>21</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I155" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>9</v>
       </c>
@@ -5105,10 +5609,10 @@
         <v>6</v>
       </c>
       <c r="C156">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -5117,13 +5621,16 @@
         <v>21</v>
       </c>
       <c r="G156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>9</v>
       </c>
@@ -5131,10 +5638,10 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -5143,39 +5650,45 @@
         <v>21</v>
       </c>
       <c r="G157">
+        <v>4</v>
+      </c>
+      <c r="H157">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>169</v>
+      </c>
+      <c r="D158" t="s">
+        <v>80</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>21</v>
+      </c>
+      <c r="G158">
         <v>3</v>
       </c>
-      <c r="H157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>203</v>
-      </c>
-      <c r="C158">
-        <v>302</v>
-      </c>
-      <c r="D158" t="s">
-        <v>204</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158">
-        <v>18</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
       <c r="H158">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>25</v>
       </c>
@@ -5183,10 +5696,10 @@
         <v>203</v>
       </c>
       <c r="C159">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -5195,39 +5708,45 @@
         <v>18</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159">
+        <v>9</v>
+      </c>
+      <c r="I159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>25</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160">
+        <v>303</v>
+      </c>
+      <c r="D160" t="s">
+        <v>205</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>18</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
         <v>15</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>10</v>
-      </c>
-      <c r="B160" t="s">
-        <v>82</v>
-      </c>
-      <c r="C160">
-        <v>175</v>
-      </c>
-      <c r="D160" t="s">
-        <v>86</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160">
-        <v>23</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10</v>
       </c>
@@ -5235,10 +5754,10 @@
         <v>82</v>
       </c>
       <c r="C161">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -5247,39 +5766,45 @@
         <v>23</v>
       </c>
       <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162">
+        <v>174</v>
+      </c>
+      <c r="D162" t="s">
+        <v>85</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>23</v>
+      </c>
+      <c r="G162">
         <v>3</v>
       </c>
-      <c r="H161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>15</v>
-      </c>
-      <c r="B162" t="s">
-        <v>138</v>
-      </c>
-      <c r="C162">
-        <v>225</v>
-      </c>
-      <c r="D162" t="s">
-        <v>140</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162">
-        <v>24</v>
-      </c>
-      <c r="G162">
-        <v>2</v>
-      </c>
       <c r="H162">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>15</v>
       </c>
@@ -5287,10 +5812,10 @@
         <v>138</v>
       </c>
       <c r="C163">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D163" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -5299,39 +5824,45 @@
         <v>24</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C164">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D164" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E164" t="s">
         <v>8</v>
       </c>
       <c r="F164">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G164">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11</v>
       </c>
@@ -5339,10 +5870,10 @@
         <v>90</v>
       </c>
       <c r="C165">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D165" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -5351,13 +5882,16 @@
         <v>19</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11</v>
       </c>
@@ -5365,10 +5899,10 @@
         <v>90</v>
       </c>
       <c r="C166">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D166" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -5377,13 +5911,16 @@
         <v>19</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>11</v>
       </c>
@@ -5391,10 +5928,10 @@
         <v>90</v>
       </c>
       <c r="C167">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E167" t="s">
         <v>8</v>
@@ -5403,39 +5940,45 @@
         <v>19</v>
       </c>
       <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168">
+        <v>184</v>
+      </c>
+      <c r="D168" t="s">
+        <v>94</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>19</v>
+      </c>
+      <c r="G168">
         <v>4</v>
       </c>
-      <c r="H167">
+      <c r="H168">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>21</v>
-      </c>
-      <c r="B168" t="s">
-        <v>174</v>
-      </c>
-      <c r="C168">
-        <v>268</v>
-      </c>
-      <c r="D168" t="s">
-        <v>177</v>
-      </c>
-      <c r="E168" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168">
-        <v>28</v>
-      </c>
-      <c r="G168">
-        <v>8</v>
-      </c>
-      <c r="H168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>21</v>
       </c>
@@ -5443,10 +5986,10 @@
         <v>174</v>
       </c>
       <c r="C169">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D169" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -5455,13 +5998,16 @@
         <v>28</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I169" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>21</v>
       </c>
@@ -5469,10 +6015,10 @@
         <v>174</v>
       </c>
       <c r="C170">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -5486,8 +6032,11 @@
       <c r="H170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>21</v>
       </c>
@@ -5495,10 +6044,10 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D171" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -5512,8 +6061,11 @@
       <c r="H171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>21</v>
       </c>
@@ -5521,10 +6073,10 @@
         <v>174</v>
       </c>
       <c r="C172">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D172" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -5533,13 +6085,16 @@
         <v>28</v>
       </c>
       <c r="G172">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21</v>
       </c>
@@ -5547,10 +6102,10 @@
         <v>174</v>
       </c>
       <c r="C173">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -5559,13 +6114,16 @@
         <v>28</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>21</v>
       </c>
@@ -5573,10 +6131,10 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -5590,8 +6148,11 @@
       <c r="H174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>21</v>
       </c>
@@ -5599,10 +6160,10 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D175" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -5616,8 +6177,11 @@
       <c r="H175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>21</v>
       </c>
@@ -5625,10 +6189,10 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -5637,39 +6201,45 @@
         <v>28</v>
       </c>
       <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177">
+        <v>274</v>
+      </c>
+      <c r="D177" t="s">
+        <v>183</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177">
+        <v>28</v>
+      </c>
+      <c r="G177">
         <v>9</v>
-      </c>
-      <c r="H176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>22</v>
-      </c>
-      <c r="B177" t="s">
-        <v>184</v>
-      </c>
-      <c r="C177">
-        <v>280</v>
-      </c>
-      <c r="D177" t="s">
-        <v>186</v>
-      </c>
-      <c r="E177" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177">
-        <v>14</v>
-      </c>
-      <c r="G177">
-        <v>2</v>
       </c>
       <c r="H177">
         <v>13</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>22</v>
       </c>
@@ -5677,10 +6247,10 @@
         <v>184</v>
       </c>
       <c r="C178">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -5689,13 +6259,16 @@
         <v>14</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>22</v>
       </c>
@@ -5703,10 +6276,10 @@
         <v>184</v>
       </c>
       <c r="C179">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D179" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E179" t="s">
         <v>8</v>
@@ -5715,13 +6288,16 @@
         <v>14</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -5729,10 +6305,10 @@
         <v>184</v>
       </c>
       <c r="C180">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D180" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -5741,13 +6317,16 @@
         <v>14</v>
       </c>
       <c r="G180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>22</v>
       </c>
@@ -5755,10 +6334,10 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -5767,13 +6346,16 @@
         <v>14</v>
       </c>
       <c r="G181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>22</v>
       </c>
@@ -5781,10 +6363,10 @@
         <v>184</v>
       </c>
       <c r="C182">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E182" t="s">
         <v>8</v>
@@ -5798,35 +6380,45 @@
       <c r="H182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C183">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D183" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
       </c>
       <c r="F183">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
+      <c r="I183" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H183" xr:uid="{0D33A8DB-B29F-4D01-8EA5-00B405D394AE}"/>
+  <autoFilter ref="A1:I1" xr:uid="{720E866E-BF7E-4330-A1CA-D1EB59856671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I183">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>